--- a/tools/remotes-calculation.xlsx
+++ b/tools/remotes-calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgermer/git/ha-remote-labeler/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF8D301-8275-B14D-B5B8-E7B380C69612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F054B-4347-DA42-A22B-CA423175FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17240" xr2:uid="{259368C1-F00B-6B49-A5F9-87DEA9BCB168}"/>
+    <workbookView xWindow="2200" yWindow="2400" windowWidth="28040" windowHeight="17240" xr2:uid="{259368C1-F00B-6B49-A5F9-87DEA9BCB168}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -421,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DBA95A-F005-454F-9510-166AE4103BB3}">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -437,23 +437,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1.8</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>27</v>
       </c>
       <c r="E5">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1.8</v>
       </c>
@@ -468,16 +474,26 @@
         <f>E4+E5+E6</f>
         <v>29.25</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H4+H5+H6</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>16</v>
       </c>
       <c r="E7" s="1">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1.8</v>
       </c>
@@ -492,16 +508,26 @@
         <f>F6+E7+E8</f>
         <v>45.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>I6+H7+H8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>16</v>
       </c>
       <c r="E9" s="1">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1.8</v>
       </c>
@@ -516,16 +542,27 @@
         <f>F8+E9+E10</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I8+H9+H10</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>27</v>
       </c>
       <c r="E11" s="1">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <f>SUM(H4:H10)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1.8</v>
       </c>
@@ -533,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>SUM(B4:B12)</f>
         <v>95</v>

--- a/tools/remotes-calculation.xlsx
+++ b/tools/remotes-calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgermer/git/ha-remote-labeler/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F054B-4347-DA42-A22B-CA423175FE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0664F1F7-82BD-7A49-BCE8-AE02095B0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="2400" windowWidth="28040" windowHeight="17240" xr2:uid="{259368C1-F00B-6B49-A5F9-87DEA9BCB168}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +456,7 @@
         <v>28.5</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -475,11 +475,11 @@
         <v>29.25</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
         <f>H4+H5+H6</f>
-        <v>15</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>16.25</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -509,11 +509,11 @@
         <v>45.5</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I8" s="1">
         <f>I6+H7+H8</f>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -524,7 +524,7 @@
         <v>16.25</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
       </c>
       <c r="I10" s="1">
         <f>I8+H9+H10</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(H4:H10)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
